--- a/medicine/Pharmacie/Lyonbiopôle/Lyonbiopôle.xlsx
+++ b/medicine/Pharmacie/Lyonbiopôle/Lyonbiopôle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lyonbiop%C3%B4le</t>
+          <t>Lyonbiopôle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyonbiopôle est un pôle de compétitivité centré sur les activités pharmaceutiques notamment sur la lutte contre les maladies infectieuses humaines et animales et les cancers. Il est situé principalement à Lyon, et notamment dans le quartier de Gerland, mais ayant des ramifications dans le reste de l'agglomération ainsi qu'à Grenoble avec l'Institute for Advanced Biosciences et surtout l'Institut de biologie structurale.
 La présence d'un pôle de compétitivité dans le secteur pharmaceutique à Lyon s'explique notamment par la présence des sièges sociaux de Sanofi Pasteur, BioMérieux, Merial, Genzyme…
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lyonbiop%C3%B4le</t>
+          <t>Lyonbiopôle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est labellisé pôle mondial en 2005. Lyonbiopôle accueille l'institut Bioaster, après avoir réussi l'appel à projet initié durant le Grand emprunt.
 </t>
